--- a/_CONCAT_DOWNER_T2W_ver1.xlsx
+++ b/_CONCAT_DOWNER_T2W_ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C7DE1E-10C7-4DF8-AA0F-C9C996DE52B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D39389-11FE-470A-B804-9B6DF61BE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="840" windowWidth="28905" windowHeight="19365" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="8550" yWindow="735" windowWidth="26700" windowHeight="17595" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     </bk>
   </cellMetadata>
 </metadata>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +445,7 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -477,8 +473,8 @@
     <col min="25" max="25" width="7.7109375" customWidth="1"/>
     <col min="26" max="26" width="7.42578125" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" customWidth="1"/>
-    <col min="29" max="29" width="52.7109375" customWidth="1"/>
+    <col min="28" max="28" width="2.140625" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" customWidth="1"/>
     <col min="35" max="35" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,15 +534,15 @@
         <v xml:space="preserve">Action (Hold, Monitor, Witness) - </v>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2" si="3">"Minimum Test Frequency - "&amp;E2</f>
-        <v xml:space="preserve">Minimum Test Frequency - </v>
+        <f>"Minimum Test Frequency (Lot =  1 day’s production) - "&amp;E2</f>
+        <v xml:space="preserve">Minimum Test Frequency (Lot =  1 day’s production) - </v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2" si="4">"Inspection / Test method - "&amp;F2</f>
+        <f t="shared" ref="T2" si="3">"Inspection / Test method - "&amp;F2</f>
         <v xml:space="preserve">Inspection / Test method - </v>
       </c>
       <c r="U2" t="str">
-        <f t="shared" ref="U2" si="5">"Acceptance Criteria - "&amp;G2</f>
+        <f t="shared" ref="U2" si="4">"Acceptance Criteria - "&amp;G2</f>
         <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="V2" t="str">
@@ -554,23 +550,23 @@
         <v xml:space="preserve">Record documents (QCP - Quality Control Portal) - </v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2" si="6">"Responsibility - "&amp;I2</f>
+        <f t="shared" ref="W2" si="5">"Responsibility - "&amp;I2</f>
         <v xml:space="preserve">Responsibility - </v>
       </c>
       <c r="X2" t="str">
-        <f t="shared" ref="X2" si="7">"Project Specific Notes / Instructions - "&amp;J2</f>
+        <f t="shared" ref="X2" si="6">"Project Specific Notes / Instructions - "&amp;J2</f>
         <v xml:space="preserve">Project Specific Notes / Instructions - </v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" ref="Y2" si="8">"Designer - "&amp;K2</f>
+        <f t="shared" ref="Y2" si="7">"Designer - "&amp;K2</f>
         <v xml:space="preserve">Designer - </v>
       </c>
       <c r="Z2" t="str">
-        <f t="shared" ref="Z2" si="9">"Eng. Rep - "&amp;L2</f>
-        <v xml:space="preserve">Eng. Rep - </v>
+        <f>"Eng. Rep / NZTA - "&amp;L2</f>
+        <v xml:space="preserve">Eng. Rep / NZTA - </v>
       </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2" si="10">"Contractor - "&amp;M2</f>
+        <f t="shared" ref="AA2" si="8">"Contractor - "&amp;M2</f>
         <v xml:space="preserve">Contractor - </v>
       </c>
       <c r="AC2" t="str" cm="1">
@@ -635,7 +631,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="AC5" t="str">
-        <v>Minimum Test Frequency -</v>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) -</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1">
@@ -779,7 +775,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="AC12" t="str">
-        <v>Eng. Rep -</v>
+        <v>Eng. Rep / NZTA -</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1">
